--- a/files/hotels.xlsx
+++ b/files/hotels.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -70,9 +70,6 @@
     <t>основное здание отеля</t>
   </si>
   <si>
-    <t>полупансион</t>
-  </si>
-  <si>
     <t>интернет;кондиционер;мини-бар</t>
   </si>
   <si>
@@ -329,13 +326,16 @@
   </si>
   <si>
     <t>5 звёзд</t>
+  </si>
+  <si>
+    <t>полупансион (завтрак, ужин)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +348,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -377,12 +384,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,6 +412,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -441,7 +463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,7 +498,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,7 +710,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,10 +721,10 @@
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -727,23 +749,23 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -765,265 +787,265 @@
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
       </c>
       <c r="L2">
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
       </c>
       <c r="L3">
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
       </c>
       <c r="L4">
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
       </c>
       <c r="L5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
       </c>
       <c r="L6">
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
+      <c r="K7" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="L7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
+      <c r="K8" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="L8">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1031,473 +1053,473 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
+      <c r="K9" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="L9">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="K10" t="s">
-        <v>76</v>
       </c>
       <c r="L10">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="K11" t="s">
-        <v>83</v>
       </c>
       <c r="L11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" t="s">
-        <v>50</v>
+      <c r="K12" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="L12">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" t="s">
-        <v>41</v>
+      <c r="K13" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="L13">
         <v>1300</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
       <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="I14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" t="s">
-        <v>41</v>
+      <c r="K14" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="L14">
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="K15" t="s">
-        <v>97</v>
       </c>
       <c r="L15">
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" t="s">
-        <v>76</v>
+      <c r="K16" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="L16">
         <v>4500</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J17" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" t="s">
-        <v>76</v>
+      <c r="K17" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="L17">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="H18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="K18" t="s">
-        <v>76</v>
       </c>
       <c r="L18">
         <v>4700</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="H19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="K19" t="s">
-        <v>76</v>
       </c>
       <c r="L19">
         <v>4800</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="K20" t="s">
-        <v>76</v>
       </c>
       <c r="L20">
         <v>4200</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="H21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="K21" t="s">
-        <v>76</v>
       </c>
       <c r="L21">
         <v>4100</v>
